--- a/Course III/EXCEL/task15/ПИ19-3 Деменчук 18_Доп_отчеты.xlsx
+++ b/Course III/EXCEL/task15/ПИ19-3 Деменчук 18_Доп_отчеты.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20380"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\191770\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\.psf\Home\Documents\Projects\FA\Course III\EXCEL\task15\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9214EEF3-083A-44D9-B6FF-0748C5125CE4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F652D3E-6165-4849-B7A3-D447773D5DE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="28800" windowHeight="16635" firstSheet="7" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" firstSheet="7" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Сводная таблица 1" sheetId="20" r:id="rId1"/>
@@ -56,6 +56,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -393,8 +402,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* &quot;-&quot;??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;р.&quot;;\-#,##0.00\ &quot;р.&quot;"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* &quot;-&quot;??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;р.&quot;;\-#,##0.00\ &quot;р.&quot;"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -592,7 +601,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="70">
@@ -601,7 +610,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -616,9 +625,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -635,7 +644,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -647,7 +656,7 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -656,7 +665,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -676,7 +685,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
@@ -693,10 +702,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
@@ -719,284 +728,9 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;р.&quot;;\-#,##0.00\ &quot;р.&quot;"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;р.&quot;;\-#,##0.00\ &quot;р.&quot;"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;р.&quot;;\-#,##0.00\ &quot;р.&quot;"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;р.&quot;;\-#,##0.00\ &quot;р.&quot;"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;р.&quot;;\-#,##0.00\ &quot;р.&quot;"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;р.&quot;;\-#,##0.00\ &quot;р.&quot;"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;р.&quot;;\-#,##0.00\ &quot;р.&quot;"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* &quot;-&quot;??\ &quot;₽&quot;_-;_-@_-"/>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* &quot;-&quot;??\ &quot;₽&quot;_-;_-@_-"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1138,7 +872,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* &quot;-&quot;??\ &quot;₽&quot;_-;_-@_-"/>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* &quot;-&quot;??\ &quot;₽&quot;_-;_-@_-"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1376,7 +1110,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="166" formatCode="dd/mm/yyyy"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1498,6 +1232,281 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;р.&quot;;\-#,##0.00\ &quot;р.&quot;"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;р.&quot;;\-#,##0.00\ &quot;р.&quot;"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;р.&quot;;\-#,##0.00\ &quot;р.&quot;"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;р.&quot;;\-#,##0.00\ &quot;р.&quot;"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;р.&quot;;\-#,##0.00\ &quot;р.&quot;"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;р.&quot;;\-#,##0.00\ &quot;р.&quot;"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;р.&quot;;\-#,##0.00\ &quot;р.&quot;"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1550,7 +1559,7 @@
     <cacheField name="Цена" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="25" maxValue="136"/>
     </cacheField>
-    <cacheField name="Стоимость" numFmtId="44">
+    <cacheField name="Стоимость" numFmtId="164">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1320" maxValue="55000" count="87">
         <n v="5400"/>
         <n v="3520"/>
@@ -1664,7 +1673,7 @@
     <cacheField name="Стоимость возврата" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="10880"/>
     </cacheField>
-    <cacheField name="Чистая стоимость" numFmtId="44">
+    <cacheField name="Чистая стоимость" numFmtId="164">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1320" maxValue="55000" count="89">
         <n v="4500"/>
         <n v="3520"/>
@@ -3480,7 +3489,7 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField numFmtId="44" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0">
       <items count="14">
@@ -3501,7 +3510,7 @@
       </items>
     </pivotField>
     <pivotField showAll="0"/>
-    <pivotField dataField="1" numFmtId="44" showAll="0">
+    <pivotField dataField="1" numFmtId="164" showAll="0">
       <items count="90">
         <item x="49"/>
         <item x="42"/>
@@ -3668,7 +3677,7 @@
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField numFmtId="44" showAll="0">
+    <pivotField numFmtId="164" showAll="0">
       <items count="88">
         <item x="48"/>
         <item x="42"/>
@@ -3780,7 +3789,7 @@
       </items>
     </pivotField>
     <pivotField showAll="0"/>
-    <pivotField dataField="1" numFmtId="44" showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
   </pivotFields>
   <rowFields count="2">
     <field x="1"/>
@@ -3972,7 +3981,7 @@
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField numFmtId="44" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0">
       <items count="14">
@@ -3993,7 +4002,7 @@
       </items>
     </pivotField>
     <pivotField showAll="0"/>
-    <pivotField dataField="1" numFmtId="44" showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
   </pivotFields>
   <rowFields count="1">
     <field x="1"/>
@@ -4066,57 +4075,57 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D405A849-88B4-477D-8CEE-A085A19807CA}" name="Товары_цена" displayName="Товары_цена" ref="A1:C10" totalsRowShown="0" headerRowDxfId="13" tableBorderDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D405A849-88B4-477D-8CEE-A085A19807CA}" name="Товары_цена" displayName="Товары_цена" ref="A1:C10" totalsRowShown="0" headerRowDxfId="32" tableBorderDxfId="31">
   <autoFilter ref="A1:C10" xr:uid="{454C3029-940F-4B72-A163-E14653329684}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{C21BE010-591F-4F91-976D-C3ACDAC571D2}" name="Наименование Товара" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{C21BE010-591F-4F91-976D-C3ACDAC571D2}" name="Наименование Товара" dataDxfId="30"/>
     <tableColumn id="2" xr3:uid="{6D28B93F-29BB-4C84-BAC1-094B469F8D36}" name="Товарная группа"/>
-    <tableColumn id="3" xr3:uid="{C07542A1-29C5-4DCC-8FBD-CD4C8416012D}" name="Цена товара (фикс)" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{C07542A1-29C5-4DCC-8FBD-CD4C8416012D}" name="Цена товара (фикс)" dataDxfId="29"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4310835D-CFDE-4ADA-ACE5-AE2F2EB8EA78}" name="Цены_таблица" displayName="Цены_таблица" ref="H1:O9" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4310835D-CFDE-4ADA-ACE5-AE2F2EB8EA78}" name="Цены_таблица" displayName="Цены_таблица" ref="H1:O9" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
   <autoFilter ref="H1:O9" xr:uid="{6CD477E7-D69C-4286-BD95-23EB993B86AF}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{D620B6AA-BC38-42E8-8574-40BE31879CA6}" name="Наименование Товара" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{D4DE033C-B84C-443A-A956-9D0C318FE2E5}" name="01.01.2017" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{A9D0B3E3-B7C7-4FB4-BC1A-33516CD49D1A}" name="01.03.2017" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{A023DE96-F723-4D35-BE1F-3FFEC926F7BD}" name="01.05.2017" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{066AC885-6762-4C56-B4AC-F2D0BFC45461}" name="01.07.2017" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{B5A31CE2-7123-46F3-B909-69F6B480159B}" name="01.11.2017" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{04D930A7-BDE4-4452-A8B2-372913D81B00}" name="Среднее" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{D620B6AA-BC38-42E8-8574-40BE31879CA6}" name="Наименование Товара" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{D4DE033C-B84C-443A-A956-9D0C318FE2E5}" name="01.01.2017" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{A9D0B3E3-B7C7-4FB4-BC1A-33516CD49D1A}" name="01.03.2017" dataDxfId="24"/>
+    <tableColumn id="4" xr3:uid="{A023DE96-F723-4D35-BE1F-3FFEC926F7BD}" name="01.05.2017" dataDxfId="23"/>
+    <tableColumn id="5" xr3:uid="{066AC885-6762-4C56-B4AC-F2D0BFC45461}" name="01.07.2017" dataDxfId="22"/>
+    <tableColumn id="6" xr3:uid="{B5A31CE2-7123-46F3-B909-69F6B480159B}" name="01.11.2017" dataDxfId="21"/>
+    <tableColumn id="7" xr3:uid="{04D930A7-BDE4-4452-A8B2-372913D81B00}" name="Среднее" dataDxfId="20">
       <calculatedColumnFormula>AVERAGE(Цены_таблица[[#This Row],[01.01.2017]:[01.11.2017]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{DBA13C5D-03CE-4F07-9827-1EF72B70732D}" name="График" dataDxfId="0"/>
+    <tableColumn id="8" xr3:uid="{DBA13C5D-03CE-4F07-9827-1EF72B70732D}" name="График" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{9A93217D-365C-B544-A15C-AA08DB54E894}" name="Таблица1" displayName="Таблица1" ref="A1:K131" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26" tableBorderDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{9A93217D-365C-B544-A15C-AA08DB54E894}" name="Таблица1" displayName="Таблица1" ref="A1:K131" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" tableBorderDxfId="11">
   <autoFilter ref="A1:K131" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{A8113154-9406-AF47-8935-9A510E7D72E1}" name="Дата" dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{1334C2B4-20B2-A442-A4F3-671B65ECB11B}" name="ФИО менеджера" dataDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{CA6F0B49-B211-6E46-A299-C6DACE5210CE}" name="Наименование клиента" dataDxfId="22"/>
-    <tableColumn id="4" xr3:uid="{B128F39C-208F-8846-AB45-F8C694832C2F}" name="Наименование Товара" dataDxfId="21"/>
-    <tableColumn id="5" xr3:uid="{7CB16B93-A4C3-2F48-832A-8F28980BA11D}" name="Количество" dataDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{99D661F8-5861-B74E-89C2-D864F4865FCB}" name="Цена" dataDxfId="19">
+    <tableColumn id="1" xr3:uid="{A8113154-9406-AF47-8935-9A510E7D72E1}" name="Дата" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{1334C2B4-20B2-A442-A4F3-671B65ECB11B}" name="ФИО менеджера" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{CA6F0B49-B211-6E46-A299-C6DACE5210CE}" name="Наименование клиента" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{B128F39C-208F-8846-AB45-F8C694832C2F}" name="Наименование Товара" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{7CB16B93-A4C3-2F48-832A-8F28980BA11D}" name="Количество" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{99D661F8-5861-B74E-89C2-D864F4865FCB}" name="Цена" dataDxfId="5">
       <calculatedColumnFormula>VLOOKUP(Таблица1[[#This Row],[Наименование Товара]],Товары_цена[],3,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{D4F76BCB-83CB-B54B-AA28-1AB0558F8AC3}" name="Стоимость" dataDxfId="18">
+    <tableColumn id="6" xr3:uid="{D4F76BCB-83CB-B54B-AA28-1AB0558F8AC3}" name="Стоимость" dataDxfId="4">
       <calculatedColumnFormula>Таблица1[[#This Row],[Количество]]*Таблица1[[#This Row],[Цена]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{D5BA46C4-2F6A-8644-B808-DE6E035CBFEA}" name="Дата возрата по рекламации" dataDxfId="17"/>
-    <tableColumn id="9" xr3:uid="{328C5F7A-1219-D645-A955-70AAC1579211}" name="Количество к возврату" dataDxfId="16"/>
-    <tableColumn id="10" xr3:uid="{6F63CF1B-9A06-5C42-BC36-634DBDFBB63D}" name="Стоимость возврата" dataDxfId="15">
+    <tableColumn id="8" xr3:uid="{D5BA46C4-2F6A-8644-B808-DE6E035CBFEA}" name="Дата возрата по рекламации" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{328C5F7A-1219-D645-A955-70AAC1579211}" name="Количество к возврату" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{6F63CF1B-9A06-5C42-BC36-634DBDFBB63D}" name="Стоимость возврата" dataDxfId="1">
       <calculatedColumnFormula>Таблица1[[#This Row],[Количество к возврату]]*Таблица1[[#This Row],[Цена]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{C475F730-85B8-0047-AD16-AFEB535CF7A7}" name="Чистая стоимость" dataDxfId="14">
+    <tableColumn id="11" xr3:uid="{C475F730-85B8-0047-AD16-AFEB535CF7A7}" name="Чистая стоимость" dataDxfId="0">
       <calculatedColumnFormula>Таблица1[[#This Row],[Стоимость]]-Таблица1[[#This Row],[Стоимость возврата]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4393,24 +4402,24 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.46484375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.46484375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.46484375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.46484375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.46484375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.46484375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.46484375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="32.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="47" t="s">
         <v>45</v>
       </c>
@@ -4429,7 +4438,7 @@
         <v>146227</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="48" t="s">
         <v>19</v>
       </c>
@@ -4448,7 +4457,7 @@
         <v>184825</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" s="48" t="s">
         <v>16</v>
       </c>
@@ -4467,7 +4476,7 @@
         <v>245736</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" s="48" t="s">
         <v>17</v>
       </c>
@@ -4486,7 +4495,7 @@
         <v>171242</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="48" t="s">
         <v>18</v>
       </c>
@@ -4505,7 +4514,7 @@
         <v>202097</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="48" t="s">
         <v>20</v>
       </c>
@@ -4521,7 +4530,7 @@
         <v>950127</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="48" t="s">
         <v>40</v>
       </c>
@@ -4540,24 +4549,24 @@
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A129" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A98" sqref="A98"/>
+      <selection pane="bottomLeft" activeCell="C134" sqref="C134"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.85546875" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" customWidth="1"/>
-    <col min="5" max="6" width="13.7109375" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" customWidth="1"/>
-    <col min="8" max="8" width="19.7109375" customWidth="1"/>
-    <col min="9" max="9" width="16.7109375" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" customWidth="1"/>
-    <col min="11" max="11" width="17.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.46484375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.796875" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" customWidth="1"/>
+    <col min="5" max="6" width="13.6640625" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" customWidth="1"/>
+    <col min="8" max="8" width="19.6640625" customWidth="1"/>
+    <col min="9" max="9" width="16.6640625" customWidth="1"/>
+    <col min="10" max="10" width="13.1328125" customWidth="1"/>
+    <col min="11" max="11" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="11" t="s">
         <v>23</v>
       </c>
@@ -4592,7 +4601,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="31">
         <v>42745</v>
       </c>
@@ -4631,7 +4640,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="31">
         <v>42746</v>
       </c>
@@ -4666,7 +4675,7 @@
         <v>3520</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" s="31">
         <v>42747</v>
       </c>
@@ -4701,7 +4710,7 @@
         <v>14960</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" s="31">
         <v>42752</v>
       </c>
@@ -4736,7 +4745,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" s="31">
         <v>42754</v>
       </c>
@@ -4771,7 +4780,7 @@
         <v>1950</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" s="31">
         <v>42759</v>
       </c>
@@ -4810,7 +4819,7 @@
         <v>5440</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8" s="31">
         <v>42759</v>
       </c>
@@ -4845,7 +4854,7 @@
         <v>14950</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" s="31">
         <v>42760</v>
       </c>
@@ -4880,7 +4889,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10" s="31">
         <v>42766</v>
       </c>
@@ -4915,7 +4924,7 @@
         <v>6966</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11" s="31">
         <v>42768</v>
       </c>
@@ -4950,7 +4959,7 @@
         <v>26100</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12" s="31">
         <v>42769</v>
       </c>
@@ -4985,7 +4994,7 @@
         <v>55000</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13" s="31">
         <v>42769</v>
       </c>
@@ -5024,7 +5033,7 @@
         <v>8160</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14" s="31">
         <v>42769</v>
       </c>
@@ -5059,7 +5068,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15" s="31">
         <v>42774</v>
       </c>
@@ -5098,7 +5107,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A16" s="31">
         <v>42775</v>
       </c>
@@ -5133,7 +5142,7 @@
         <v>4860</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A17" s="31">
         <v>42783</v>
       </c>
@@ -5168,7 +5177,7 @@
         <v>26970</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A18" s="31">
         <v>42783</v>
       </c>
@@ -5207,7 +5216,7 @@
         <v>2880</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A19" s="31">
         <v>42786</v>
       </c>
@@ -5242,7 +5251,7 @@
         <v>13200</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A20" s="31">
         <v>42787</v>
       </c>
@@ -5277,7 +5286,7 @@
         <v>17680</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A21" s="31">
         <v>42787</v>
       </c>
@@ -5312,7 +5321,7 @@
         <v>1950</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A22" s="31">
         <v>42807</v>
       </c>
@@ -5347,7 +5356,7 @@
         <v>2848</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A23" s="31">
         <v>42807</v>
       </c>
@@ -5382,7 +5391,7 @@
         <v>7560</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A24" s="31">
         <v>42808</v>
       </c>
@@ -5421,7 +5430,7 @@
         <v>8700</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A25" s="31">
         <v>42809</v>
       </c>
@@ -5460,7 +5469,7 @@
         <v>13200</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A26" s="31">
         <v>42810</v>
       </c>
@@ -5495,7 +5504,7 @@
         <v>2520</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A27" s="31">
         <v>42811</v>
       </c>
@@ -5530,7 +5539,7 @@
         <v>5400</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A28" s="31">
         <v>42811</v>
       </c>
@@ -5569,7 +5578,7 @@
         <v>2240</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A29" s="31">
         <v>42811</v>
       </c>
@@ -5604,7 +5613,7 @@
         <v>2240</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A30" s="31">
         <v>42812</v>
       </c>
@@ -5639,7 +5648,7 @@
         <v>1920</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A31" s="31">
         <v>42814</v>
       </c>
@@ -5678,7 +5687,7 @@
         <v>5400</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A32" s="31">
         <v>42814</v>
       </c>
@@ -5713,7 +5722,7 @@
         <v>14442</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A33" s="31">
         <v>42815</v>
       </c>
@@ -5748,7 +5757,7 @@
         <v>10440</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A34" s="31">
         <v>42817</v>
       </c>
@@ -5783,7 +5792,7 @@
         <v>20900</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A35" s="31">
         <v>42818</v>
       </c>
@@ -5822,7 +5831,7 @@
         <v>19800</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A36" s="31">
         <v>42821</v>
       </c>
@@ -5857,7 +5866,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A37" s="31">
         <v>42838</v>
       </c>
@@ -5892,7 +5901,7 @@
         <v>10440</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A38" s="31">
         <v>42839</v>
       </c>
@@ -5931,7 +5940,7 @@
         <v>2175</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A39" s="31">
         <v>42839</v>
       </c>
@@ -5966,7 +5975,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A40" s="31">
         <v>42843</v>
       </c>
@@ -6005,7 +6014,7 @@
         <v>6600</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A41" s="31">
         <v>42842</v>
       </c>
@@ -6040,7 +6049,7 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A42" s="31">
         <v>42842</v>
       </c>
@@ -6075,7 +6084,7 @@
         <v>9585</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A43" s="31">
         <v>42842</v>
       </c>
@@ -6114,7 +6123,7 @@
         <v>11050</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A44" s="31">
         <v>42843</v>
       </c>
@@ -6149,7 +6158,7 @@
         <v>13200</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A45" s="31">
         <v>42844</v>
       </c>
@@ -6184,7 +6193,7 @@
         <v>6500</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A46" s="31">
         <v>42845</v>
       </c>
@@ -6219,7 +6228,7 @@
         <v>9900</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A47" s="31">
         <v>42846</v>
       </c>
@@ -6254,7 +6263,7 @@
         <v>4950</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A48" s="31">
         <v>42845</v>
       </c>
@@ -6293,7 +6302,7 @@
         <v>4400</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A49" s="31">
         <v>42846</v>
       </c>
@@ -6328,7 +6337,7 @@
         <v>20150</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A50" s="31">
         <v>42847</v>
       </c>
@@ -6363,7 +6372,7 @@
         <v>7392</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A51" s="31">
         <v>42849</v>
       </c>
@@ -6398,7 +6407,7 @@
         <v>2560</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A52" s="31">
         <v>42849</v>
       </c>
@@ -6433,7 +6442,7 @@
         <v>1920</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A53" s="31">
         <v>42872</v>
       </c>
@@ -6472,7 +6481,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A54" s="31">
         <v>42880</v>
       </c>
@@ -6507,7 +6516,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A55" s="31">
         <v>42880</v>
       </c>
@@ -6546,7 +6555,7 @@
         <v>5590</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A56" s="31">
         <v>42881</v>
       </c>
@@ -6581,7 +6590,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A57" s="31">
         <v>42881</v>
       </c>
@@ -6616,7 +6625,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A58" s="31">
         <v>42882</v>
       </c>
@@ -6651,7 +6660,7 @@
         <v>6400</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A59" s="31">
         <v>42892</v>
       </c>
@@ -6690,7 +6699,7 @@
         <v>13920</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A60" s="31">
         <v>42894</v>
       </c>
@@ -6725,7 +6734,7 @@
         <v>7800</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A61" s="31">
         <v>42895</v>
       </c>
@@ -6764,7 +6773,7 @@
         <v>13600</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A62" s="31">
         <v>42896</v>
       </c>
@@ -6799,7 +6808,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A63" s="31">
         <v>42899</v>
       </c>
@@ -6834,7 +6843,7 @@
         <v>13920</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A64" s="31">
         <v>42898</v>
       </c>
@@ -6869,7 +6878,7 @@
         <v>4510</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A65" s="31">
         <v>42899</v>
       </c>
@@ -6904,7 +6913,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A66" s="31">
         <v>42901</v>
       </c>
@@ -6943,7 +6952,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A67" s="31">
         <v>42901</v>
       </c>
@@ -6982,7 +6991,7 @@
         <v>4160</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A68" s="31">
         <v>42931</v>
       </c>
@@ -7017,7 +7026,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A69" s="31">
         <v>42932</v>
       </c>
@@ -7052,7 +7061,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A70" s="31">
         <v>42933</v>
       </c>
@@ -7087,7 +7096,7 @@
         <v>5220</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A71" s="31">
         <v>42934</v>
       </c>
@@ -7126,7 +7135,7 @@
         <v>8800</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A72" s="31">
         <v>42935</v>
       </c>
@@ -7161,7 +7170,7 @@
         <v>13600</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A73" s="31">
         <v>42936</v>
       </c>
@@ -7196,7 +7205,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A74" s="31">
         <v>42937</v>
       </c>
@@ -7231,7 +7240,7 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A75" s="31">
         <v>42938</v>
       </c>
@@ -7266,7 +7275,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A76" s="31">
         <v>42939</v>
       </c>
@@ -7305,7 +7314,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A77" s="31">
         <v>42940</v>
       </c>
@@ -7340,7 +7349,7 @@
         <v>4320</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A78" s="31">
         <v>42940</v>
       </c>
@@ -7375,7 +7384,7 @@
         <v>4320</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A79" s="31">
         <v>42941</v>
       </c>
@@ -7410,7 +7419,7 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A80" s="31">
         <v>42941</v>
       </c>
@@ -7445,7 +7454,7 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A81" s="31">
         <v>42942</v>
       </c>
@@ -7484,7 +7493,7 @@
         <v>5220</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A82" s="31">
         <v>42942</v>
       </c>
@@ -7519,7 +7528,7 @@
         <v>6090</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A83" s="31">
         <v>42943</v>
       </c>
@@ -7558,7 +7567,7 @@
         <v>14300</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A84" s="31">
         <v>42943</v>
       </c>
@@ -7593,7 +7602,7 @@
         <v>18700</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A85" s="31">
         <v>42944</v>
       </c>
@@ -7628,7 +7637,7 @@
         <v>6664</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A86" s="31">
         <v>42945</v>
       </c>
@@ -7663,7 +7672,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A87" s="31">
         <v>42956</v>
       </c>
@@ -7698,7 +7707,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A88" s="31">
         <v>42957</v>
       </c>
@@ -7737,7 +7746,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A89" s="31">
         <v>42958</v>
       </c>
@@ -7772,7 +7781,7 @@
         <v>5400</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A90" s="31">
         <v>42959</v>
       </c>
@@ -7807,7 +7816,7 @@
         <v>11700</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A91" s="31">
         <v>42960</v>
       </c>
@@ -7842,7 +7851,7 @@
         <v>14790</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A92" s="31">
         <v>42961</v>
       </c>
@@ -7877,7 +7886,7 @@
         <v>8800</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A93" s="31">
         <v>42961</v>
       </c>
@@ -7916,7 +7925,7 @@
         <v>6600</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A94" s="31">
         <v>42962</v>
       </c>
@@ -7951,7 +7960,7 @@
         <v>8160</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A95" s="31">
         <v>42962</v>
       </c>
@@ -7986,7 +7995,7 @@
         <v>6600</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A96" s="31">
         <v>42963</v>
       </c>
@@ -8025,7 +8034,7 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A97" s="31">
         <v>42963</v>
       </c>
@@ -8060,7 +8069,7 @@
         <v>4160</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A98" s="31">
         <v>42964</v>
       </c>
@@ -8095,7 +8104,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A99" s="31">
         <v>42964</v>
       </c>
@@ -8130,7 +8139,7 @@
         <v>4872</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A100" s="31">
         <v>42965</v>
       </c>
@@ -8169,7 +8178,7 @@
         <v>4545</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A101" s="31">
         <v>42965</v>
       </c>
@@ -8204,7 +8213,7 @@
         <v>6075</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A102" s="31">
         <v>42966</v>
       </c>
@@ -8239,7 +8248,7 @@
         <v>4320</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A103" s="31">
         <v>42966</v>
       </c>
@@ -8274,7 +8283,7 @@
         <v>10880</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A104" s="31">
         <v>42967</v>
       </c>
@@ -8309,7 +8318,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A105" s="31">
         <v>42967</v>
       </c>
@@ -8344,7 +8353,7 @@
         <v>2560</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A106" s="31">
         <v>42968</v>
       </c>
@@ -8379,7 +8388,7 @@
         <v>13050</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A107" s="31">
         <v>42968</v>
       </c>
@@ -8418,7 +8427,7 @@
         <v>11550</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A108" s="31">
         <v>42969</v>
       </c>
@@ -8457,7 +8466,7 @@
         <v>12650</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A109" s="31">
         <v>42969</v>
       </c>
@@ -8492,7 +8501,7 @@
         <v>3375</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A110" s="31">
         <v>42970</v>
       </c>
@@ -8527,7 +8536,7 @@
         <v>10880</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A111" s="31">
         <v>42970</v>
       </c>
@@ -8566,7 +8575,7 @@
         <v>6600</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A112" s="31">
         <v>43346</v>
       </c>
@@ -8601,7 +8610,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A113" s="31">
         <v>43346</v>
       </c>
@@ -8636,7 +8645,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A114" s="31">
         <v>43347</v>
       </c>
@@ -8671,7 +8680,7 @@
         <v>9900</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A115" s="31">
         <v>43347</v>
       </c>
@@ -8706,7 +8715,7 @@
         <v>10880</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A116" s="31">
         <v>43348</v>
       </c>
@@ -8745,7 +8754,7 @@
         <v>17680</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A117" s="31">
         <v>43348</v>
       </c>
@@ -8780,7 +8789,7 @@
         <v>5940</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A118" s="31">
         <v>43349</v>
       </c>
@@ -8815,7 +8824,7 @@
         <v>5750</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A119" s="31">
         <v>43349</v>
       </c>
@@ -8854,7 +8863,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A120" s="31">
         <v>43350</v>
       </c>
@@ -8889,7 +8898,7 @@
         <v>1920</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A121" s="31">
         <v>43350</v>
       </c>
@@ -8924,7 +8933,7 @@
         <v>3400</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A122" s="31">
         <v>43353</v>
       </c>
@@ -8959,7 +8968,7 @@
         <v>7650</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A123" s="31">
         <v>43353</v>
       </c>
@@ -8994,7 +9003,7 @@
         <v>4250</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A124" s="31">
         <v>43354</v>
       </c>
@@ -9029,7 +9038,7 @@
         <v>3024</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A125" s="31">
         <v>43354</v>
       </c>
@@ -9068,7 +9077,7 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A126" s="31">
         <v>43355</v>
       </c>
@@ -9103,7 +9112,7 @@
         <v>5850</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A127" s="31">
         <v>43355</v>
       </c>
@@ -9138,7 +9147,7 @@
         <v>4860</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A128" s="31">
         <v>43356</v>
       </c>
@@ -9173,7 +9182,7 @@
         <v>6090</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A129" s="31">
         <v>43356</v>
       </c>
@@ -9208,7 +9217,7 @@
         <v>6090</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A130" s="31">
         <v>43357</v>
       </c>
@@ -9243,7 +9252,7 @@
         <v>5500</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A131" s="31">
         <v>43357</v>
       </c>
@@ -9280,31 +9289,31 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E2:F67">
-    <cfRule type="cellIs" dxfId="32" priority="5" operator="between">
+    <cfRule type="cellIs" dxfId="18" priority="5" operator="between">
       <formula>1</formula>
       <formula>45</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E68:F131">
-    <cfRule type="cellIs" dxfId="31" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="17" priority="4" operator="between">
       <formula>1</formula>
       <formula>45</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E68:F87">
-    <cfRule type="cellIs" dxfId="30" priority="3" operator="between">
+    <cfRule type="cellIs" dxfId="16" priority="3" operator="between">
       <formula>1</formula>
       <formula>45</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E88:F100">
-    <cfRule type="cellIs" dxfId="29" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="15" priority="2" operator="between">
       <formula>1</formula>
       <formula>45</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E101:F131">
-    <cfRule type="cellIs" dxfId="28" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="between">
       <formula>1</formula>
       <formula>45</formula>
     </cfRule>
@@ -9331,17 +9340,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{245E371F-642F-44E6-A519-27141399FA19}">
   <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="33.140625" customWidth="1"/>
-    <col min="14" max="14" width="22.28515625" customWidth="1"/>
+    <col min="1" max="1" width="33.1328125" customWidth="1"/>
+    <col min="14" max="14" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A1" s="59" t="s">
         <v>99</v>
       </c>
@@ -9349,16 +9358,16 @@
         <v>100</v>
       </c>
       <c r="M1" s="67">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N1" t="s">
         <v>84</v>
       </c>
       <c r="O1" s="67">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A2" s="60" t="s">
         <v>101</v>
       </c>
@@ -9390,21 +9399,21 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>16</v>
       </c>
       <c r="B3">
-        <f>SUM((ФИО_менеджера=$A3)*(WEEKDAY(Дата,2)=B$2)*(MONTH(Дата)&gt;=$M$1)*(MONTH(Дата)&lt;=$O$1) * (YEAR(Дата)=$M$2) )</f>
-        <v>0</v>
+        <f t="array" ref="B3">SUM((ФИО_менеджера=$A3)*(WEEKDAY(Дата,2)=B$2)*(MONTH(Дата)&gt;=$M$1)*(MONTH(Дата)&lt;=$O$1) * (YEAR(Дата)=$M$2) )</f>
+        <v>2</v>
       </c>
       <c r="C3">
         <f t="array" ref="C3">SUM((ФИО_менеджера=$A3)*(WEEKDAY(Дата,2)=C$2)*(MONTH(Дата)&gt;=$M$1)*(MONTH(Дата)&lt;=$O$1) * (YEAR(Дата)=$M$2) )</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3">
         <f t="array" ref="D3">SUM((ФИО_менеджера=$A3)*(WEEKDAY(Дата,2)=D$2)*(MONTH(Дата)&gt;=$M$1)*(MONTH(Дата)&lt;=$O$1) * (YEAR(Дата)=$M$2) )</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <f t="array" ref="E3">SUM((ФИО_менеджера=$A3)*(WEEKDAY(Дата,2)=E$2)*(MONTH(Дата)&gt;=$M$1)*(MONTH(Дата)&lt;=$O$1) * (YEAR(Дата)=$M$2) )</f>
@@ -9423,13 +9432,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>17</v>
       </c>
       <c r="B4">
         <f t="array" ref="B4">SUM((ФИО_менеджера=$A4)*(WEEKDAY(Дата,2)=B$2)*(MONTH(Дата)&gt;=$M$1)*(MONTH(Дата)&lt;=$O$1) * (YEAR(Дата)=$M$2) )</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4">
         <f t="array" ref="C4">SUM((ФИО_менеджера=$A4)*(WEEKDAY(Дата,2)=C$2)*(MONTH(Дата)&gt;=$M$1)*(MONTH(Дата)&lt;=$O$1) * (YEAR(Дата)=$M$2) )</f>
@@ -9437,40 +9446,40 @@
       </c>
       <c r="D4">
         <f t="array" ref="D4">SUM((ФИО_менеджера=$A4)*(WEEKDAY(Дата,2)=D$2)*(MONTH(Дата)&gt;=$M$1)*(MONTH(Дата)&lt;=$O$1) * (YEAR(Дата)=$M$2) )</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E4">
         <f t="array" ref="E4">SUM((ФИО_менеджера=$A4)*(WEEKDAY(Дата,2)=E$2)*(MONTH(Дата)&gt;=$M$1)*(MONTH(Дата)&lt;=$O$1) * (YEAR(Дата)=$M$2) )</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F4">
         <f t="array" ref="F4">SUM((ФИО_менеджера=$A4)*(WEEKDAY(Дата,2)=F$2)*(MONTH(Дата)&gt;=$M$1)*(MONTH(Дата)&lt;=$O$1) * (YEAR(Дата)=$M$2) )</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G4">
         <f t="array" ref="G4">SUM((ФИО_менеджера=$A4)*(WEEKDAY(Дата,2)=G$2)*(MONTH(Дата)&gt;=$M$1)*(MONTH(Дата)&lt;=$O$1) * (YEAR(Дата)=$M$2) )</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H4">
         <f t="array" ref="H4">SUM((ФИО_менеджера=$A4)*(WEEKDAY(Дата,2)=H$2)*(MONTH(Дата)&gt;=$M$1)*(MONTH(Дата)&lt;=$O$1) * (YEAR(Дата)=$M$2) )</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>18</v>
       </c>
       <c r="B5">
         <f t="array" ref="B5">SUM((ФИО_менеджера=$A5)*(WEEKDAY(Дата,2)=B$2)*(MONTH(Дата)&gt;=$M$1)*(MONTH(Дата)&lt;=$O$1) * (YEAR(Дата)=$M$2) )</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5">
         <f t="array" ref="C5">SUM((ФИО_менеджера=$A5)*(WEEKDAY(Дата,2)=C$2)*(MONTH(Дата)&gt;=$M$1)*(MONTH(Дата)&lt;=$O$1) * (YEAR(Дата)=$M$2) )</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5">
         <f t="array" ref="D5">SUM((ФИО_менеджера=$A5)*(WEEKDAY(Дата,2)=D$2)*(MONTH(Дата)&gt;=$M$1)*(MONTH(Дата)&lt;=$O$1) * (YEAR(Дата)=$M$2) )</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E5">
         <f t="array" ref="E5">SUM((ФИО_менеджера=$A5)*(WEEKDAY(Дата,2)=E$2)*(MONTH(Дата)&gt;=$M$1)*(MONTH(Дата)&lt;=$O$1) * (YEAR(Дата)=$M$2) )</f>
@@ -9478,7 +9487,7 @@
       </c>
       <c r="F5">
         <f t="array" ref="F5">SUM((ФИО_менеджера=$A5)*(WEEKDAY(Дата,2)=F$2)*(MONTH(Дата)&gt;=$M$1)*(MONTH(Дата)&lt;=$O$1) * (YEAR(Дата)=$M$2) )</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G5">
         <f t="array" ref="G5">SUM((ФИО_менеджера=$A5)*(WEEKDAY(Дата,2)=G$2)*(MONTH(Дата)&gt;=$M$1)*(MONTH(Дата)&lt;=$O$1) * (YEAR(Дата)=$M$2) )</f>
@@ -9489,13 +9498,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>19</v>
       </c>
       <c r="B6">
         <f t="array" ref="B6">SUM((ФИО_менеджера=$A6)*(WEEKDAY(Дата,2)=B$2)*(MONTH(Дата)&gt;=$M$1)*(MONTH(Дата)&lt;=$O$1) * (YEAR(Дата)=$M$2) )</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6">
         <f t="array" ref="C6">SUM((ФИО_менеджера=$A6)*(WEEKDAY(Дата,2)=C$2)*(MONTH(Дата)&gt;=$M$1)*(MONTH(Дата)&lt;=$O$1) * (YEAR(Дата)=$M$2) )</f>
@@ -9503,7 +9512,7 @@
       </c>
       <c r="D6">
         <f t="array" ref="D6">SUM((ФИО_менеджера=$A6)*(WEEKDAY(Дата,2)=D$2)*(MONTH(Дата)&gt;=$M$1)*(MONTH(Дата)&lt;=$O$1) * (YEAR(Дата)=$M$2) )</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6">
         <f t="array" ref="E6">SUM((ФИО_менеджера=$A6)*(WEEKDAY(Дата,2)=E$2)*(MONTH(Дата)&gt;=$M$1)*(MONTH(Дата)&lt;=$O$1) * (YEAR(Дата)=$M$2) )</f>
@@ -9511,7 +9520,7 @@
       </c>
       <c r="F6">
         <f t="array" ref="F6">SUM((ФИО_менеджера=$A6)*(WEEKDAY(Дата,2)=F$2)*(MONTH(Дата)&gt;=$M$1)*(MONTH(Дата)&lt;=$O$1) * (YEAR(Дата)=$M$2) )</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G6">
         <f t="array" ref="G6">SUM((ФИО_менеджера=$A6)*(WEEKDAY(Дата,2)=G$2)*(MONTH(Дата)&gt;=$M$1)*(MONTH(Дата)&lt;=$O$1) * (YEAR(Дата)=$M$2) )</f>
@@ -9522,13 +9531,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>20</v>
       </c>
       <c r="B7">
         <f t="array" ref="B7">SUM((ФИО_менеджера=$A7)*(WEEKDAY(Дата,2)=B$2)*(MONTH(Дата)&gt;=$M$1)*(MONTH(Дата)&lt;=$O$1) * (YEAR(Дата)=$M$2) )</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C7">
         <f t="array" ref="C7">SUM((ФИО_менеджера=$A7)*(WEEKDAY(Дата,2)=C$2)*(MONTH(Дата)&gt;=$M$1)*(MONTH(Дата)&lt;=$O$1) * (YEAR(Дата)=$M$2) )</f>
@@ -9544,7 +9553,7 @@
       </c>
       <c r="F7">
         <f t="array" ref="F7">SUM((ФИО_менеджера=$A7)*(WEEKDAY(Дата,2)=F$2)*(MONTH(Дата)&gt;=$M$1)*(MONTH(Дата)&lt;=$O$1) * (YEAR(Дата)=$M$2) )</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G7">
         <f t="array" ref="G7">SUM((ФИО_менеджера=$A7)*(WEEKDAY(Дата,2)=G$2)*(MONTH(Дата)&gt;=$M$1)*(MONTH(Дата)&lt;=$O$1) * (YEAR(Дата)=$M$2) )</f>
@@ -9552,16 +9561,16 @@
       </c>
       <c r="H7">
         <f t="array" ref="H7">SUM((ФИО_менеджера=$A7)*(WEEKDAY(Дата,2)=H$2)*(MONTH(Дата)&gt;=$M$1)*(MONTH(Дата)&lt;=$O$1) * (YEAR(Дата)=$M$2) )</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A8" s="60" t="s">
         <v>103</v>
       </c>
       <c r="B8" s="2">
         <f>SUM(B3:B7)</f>
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C8" s="2">
         <f t="shared" ref="C8:H8" si="0">SUM(C3:C7)</f>
@@ -9569,31 +9578,69 @@
       </c>
       <c r="D8" s="2">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E8" s="2">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F8" s="2">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G8" s="2">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H8" s="2">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="I8" s="2">
+        <f>SUM(B8:H8)</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B9">
+        <f>B8/$I$8*100</f>
+        <v>21.53846153846154</v>
+      </c>
+      <c r="C9">
+        <f t="shared" ref="C9:H9" si="1">C8/$I$8*100</f>
+        <v>15.384615384615385</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>9.2307692307692317</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>10.76923076923077</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>3.0769230769230771</v>
+      </c>
+      <c r="I9">
+        <f>SUM(B9:H9)</f>
+        <v>100.00000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A12" s="59" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A13" s="60" t="s">
         <v>101</v>
       </c>
@@ -9619,36 +9666,36 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>16</v>
       </c>
       <c r="B14" s="7">
         <f>B3/SUM($B3:$H3)</f>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="C14" s="7">
+        <f t="shared" ref="C14:H14" si="2">C3/SUM($B3:$H3)</f>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="D14" s="7">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="C14" s="7">
-        <f t="shared" ref="C14:H14" si="1">C3/SUM($B3:$H3)</f>
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="D14" s="7">
-        <f t="shared" si="1"/>
+      <c r="E14" s="7">
+        <f t="shared" si="2"/>
         <v>0.14285714285714285</v>
       </c>
-      <c r="E14" s="7">
-        <f t="shared" si="1"/>
+      <c r="F14" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="7">
+        <f t="shared" si="2"/>
         <v>0.14285714285714285</v>
       </c>
-      <c r="F14" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G14" s="7">
-        <f t="shared" si="1"/>
-        <v>0.14285714285714285</v>
-      </c>
       <c r="H14" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I14" s="61">
@@ -9656,188 +9703,188 @@
         <v>0.99999999999999978</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="7">
         <f>B4/SUM($B4:$H4)</f>
-        <v>0.2857142857142857</v>
+        <v>0.17647058823529413</v>
       </c>
       <c r="C15" s="7">
-        <f t="shared" ref="B15:H15" si="2">C4/SUM($B4:$H4)</f>
-        <v>0.21428571428571427</v>
+        <f t="shared" ref="C15:H15" si="3">C4/SUM($B4:$H4)</f>
+        <v>0.17647058823529413</v>
       </c>
       <c r="D15" s="7">
-        <f t="shared" si="2"/>
-        <v>0.14285714285714285</v>
+        <f t="shared" si="3"/>
+        <v>0.17647058823529413</v>
       </c>
       <c r="E15" s="7">
-        <f t="shared" si="2"/>
-        <v>0.14285714285714285</v>
+        <f t="shared" si="3"/>
+        <v>0.23529411764705882</v>
       </c>
       <c r="F15" s="7">
-        <f t="shared" si="2"/>
-        <v>7.1428571428571425E-2</v>
+        <f t="shared" si="3"/>
+        <v>0.17647058823529413</v>
       </c>
       <c r="G15" s="7">
-        <f t="shared" si="2"/>
-        <v>0.14285714285714285</v>
+        <f t="shared" si="3"/>
+        <v>5.8823529411764705E-2</v>
       </c>
       <c r="H15" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I15" s="61">
-        <f t="shared" ref="I15:I18" si="3">SUM(B15:H15)</f>
-        <v>0.99999999999999978</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" ref="I15:I18" si="4">SUM(B15:H15)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>18</v>
       </c>
       <c r="B16" s="7">
         <f>B5/SUM($B5:$H5)</f>
-        <v>5.8823529411764705E-2</v>
+        <v>0.125</v>
       </c>
       <c r="C16" s="7">
-        <f t="shared" ref="B16:H16" si="4">C5/SUM($B5:$H5)</f>
-        <v>0.11764705882352941</v>
+        <f t="shared" ref="C16:H16" si="5">C5/SUM($B5:$H5)</f>
+        <v>0.1875</v>
       </c>
       <c r="D16" s="7">
+        <f t="shared" si="5"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="E16" s="7">
+        <f t="shared" si="5"/>
+        <v>0.125</v>
+      </c>
+      <c r="F16" s="7">
+        <f t="shared" si="5"/>
+        <v>0.25</v>
+      </c>
+      <c r="G16" s="7">
+        <f t="shared" si="5"/>
+        <v>0.1875</v>
+      </c>
+      <c r="H16" s="7">
+        <f t="shared" si="5"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="I16" s="61">
         <f t="shared" si="4"/>
-        <v>0.29411764705882354</v>
-      </c>
-      <c r="E16" s="7">
-        <f t="shared" si="4"/>
-        <v>0.11764705882352941</v>
-      </c>
-      <c r="F16" s="7">
-        <f t="shared" si="4"/>
-        <v>0.17647058823529413</v>
-      </c>
-      <c r="G16" s="7">
-        <f t="shared" si="4"/>
-        <v>0.17647058823529413</v>
-      </c>
-      <c r="H16" s="7">
-        <f t="shared" si="4"/>
-        <v>5.8823529411764705E-2</v>
-      </c>
-      <c r="I16" s="61">
-        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>19</v>
       </c>
       <c r="B17" s="7">
-        <f t="shared" ref="B17:H17" si="5">B6/SUM($B6:$H6)</f>
-        <v>0.18181818181818182</v>
+        <f t="shared" ref="B17:H17" si="6">B6/SUM($B6:$H6)</f>
+        <v>0.21428571428571427</v>
       </c>
       <c r="C17" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="D17" s="7">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>7.1428571428571425E-2</v>
       </c>
       <c r="E17" s="7">
-        <f t="shared" si="5"/>
-        <v>0.27272727272727271</v>
+        <f t="shared" si="6"/>
+        <v>0.21428571428571427</v>
       </c>
       <c r="F17" s="7">
-        <f t="shared" si="5"/>
-        <v>0.27272727272727271</v>
+        <f t="shared" si="6"/>
+        <v>0.2857142857142857</v>
       </c>
       <c r="G17" s="7">
-        <f t="shared" si="5"/>
-        <v>0.18181818181818182</v>
+        <f t="shared" si="6"/>
+        <v>0.14285714285714285</v>
       </c>
       <c r="H17" s="7">
-        <f t="shared" si="5"/>
-        <v>9.0909090909090912E-2</v>
+        <f t="shared" si="6"/>
+        <v>7.1428571428571425E-2</v>
       </c>
       <c r="I17" s="61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>20</v>
       </c>
       <c r="B18" s="7">
-        <f t="shared" ref="B18:H18" si="6">B7/SUM($B7:$H7)</f>
-        <v>0.1</v>
+        <f t="shared" ref="B18:H18" si="7">B7/SUM($B7:$H7)</f>
+        <v>0.36363636363636365</v>
       </c>
       <c r="C18" s="7">
-        <f t="shared" si="6"/>
-        <v>0.1</v>
+        <f t="shared" si="7"/>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="D18" s="7">
-        <f t="shared" si="6"/>
-        <v>0.1</v>
+        <f t="shared" si="7"/>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="E18" s="7">
-        <f t="shared" si="6"/>
-        <v>0.3</v>
+        <f t="shared" si="7"/>
+        <v>0.27272727272727271</v>
       </c>
       <c r="F18" s="7">
-        <f t="shared" si="6"/>
-        <v>0.1</v>
+        <f t="shared" si="7"/>
+        <v>0.18181818181818182</v>
       </c>
       <c r="G18" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H18" s="7">
-        <f t="shared" si="6"/>
-        <v>0.3</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="I18" s="61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>105</v>
       </c>
       <c r="B19" s="7">
         <f>SUM(B14:B18)/COUNT(B14:B18)</f>
-        <v>0.12527119938884643</v>
+        <v>0.23302139037433153</v>
       </c>
       <c r="C19" s="7">
-        <f t="shared" ref="C19:I19" si="7">SUM(C14:C18)/COUNT(C14:C18)</f>
-        <v>0.20067226890756301</v>
+        <f t="shared" ref="C19:I19" si="8">SUM(C14:C18)/COUNT(C14:C18)</f>
+        <v>0.17669022154316272</v>
       </c>
       <c r="D19" s="7">
-        <f t="shared" si="7"/>
-        <v>0.13596638655462184</v>
+        <f t="shared" si="8"/>
+        <v>8.0261650114591299E-2</v>
       </c>
       <c r="E19" s="7">
-        <f t="shared" si="7"/>
-        <v>0.19521772345301755</v>
+        <f t="shared" si="8"/>
+        <v>0.19803284950343775</v>
       </c>
       <c r="F19" s="7">
-        <f t="shared" si="7"/>
-        <v>0.12412528647822765</v>
+        <f t="shared" si="8"/>
+        <v>0.17880061115355234</v>
       </c>
       <c r="G19" s="7">
-        <f t="shared" si="7"/>
-        <v>0.12880061115355232</v>
+        <f t="shared" si="8"/>
+        <v>0.10640756302521008</v>
       </c>
       <c r="H19" s="7">
-        <f t="shared" si="7"/>
-        <v>8.9946524064171113E-2</v>
+        <f t="shared" si="8"/>
+        <v>2.6785714285714284E-2</v>
       </c>
       <c r="I19" s="66">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -9851,25 +9898,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4982E31-79AF-4660-9833-F7C046CD504F}">
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="30.85546875" style="37" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" style="37" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" style="37" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" style="37" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" style="37" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="37"/>
-    <col min="7" max="7" width="12.85546875" style="37" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.796875" style="37" customWidth="1"/>
+    <col min="2" max="2" width="19.46484375" style="37" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.796875" style="37" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.46484375" style="37" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.1328125" style="37" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1328125" style="37"/>
+    <col min="7" max="7" width="12.796875" style="37" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" style="37" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" style="37" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="37"/>
+    <col min="10" max="16384" width="9.1328125" style="37"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>106</v>
       </c>
@@ -9881,7 +9928,7 @@
       </c>
       <c r="N1" s="63"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A2" s="30" t="s">
         <v>13</v>
       </c>
@@ -9901,7 +9948,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A3" s="37" t="s">
         <v>16</v>
       </c>
@@ -9918,7 +9965,7 @@
         <v>2520</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A4" s="37" t="s">
         <v>17</v>
       </c>
@@ -9935,7 +9982,7 @@
         <v>2240</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A5" s="37" t="s">
         <v>18</v>
       </c>
@@ -9952,7 +9999,7 @@
         <v>2240</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A6" s="37" t="s">
         <v>19</v>
       </c>
@@ -9969,7 +10016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A7" s="37" t="s">
         <v>20</v>
       </c>
@@ -9986,10 +10033,10 @@
         <v>7560</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B19" s="69"/>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B20" s="68"/>
     </row>
   </sheetData>
@@ -10005,17 +10052,17 @@
       <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.46484375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="28.46484375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.46484375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.46484375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="47" t="s">
         <v>45</v>
       </c>
@@ -10033,7 +10080,7 @@
         <v>25160</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="48" t="s">
         <v>19</v>
       </c>
@@ -10051,7 +10098,7 @@
         <v>36540</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" s="50" t="s">
         <v>65</v>
       </c>
@@ -10069,7 +10116,7 @@
         <v>30940</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" s="50" t="s">
         <v>28</v>
       </c>
@@ -10087,7 +10134,7 @@
         <v>12992</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="50" t="s">
         <v>27</v>
       </c>
@@ -10105,7 +10152,7 @@
         <v>13275</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="50" t="s">
         <v>9</v>
       </c>
@@ -10123,7 +10170,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="50" t="s">
         <v>10</v>
       </c>
@@ -10141,7 +10188,7 @@
         <v>14520</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="50" t="s">
         <v>7</v>
       </c>
@@ -10159,7 +10206,7 @@
         <v>10800</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="50" t="s">
         <v>64</v>
       </c>
@@ -10177,7 +10224,7 @@
         <v>31280</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="50" t="s">
         <v>26</v>
       </c>
@@ -10195,7 +10242,7 @@
         <v>21402</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="48" t="s">
         <v>16</v>
       </c>
@@ -10213,7 +10260,7 @@
         <v>11050</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="50" t="s">
         <v>65</v>
       </c>
@@ -10231,7 +10278,7 @@
         <v>6048</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="50" t="s">
         <v>28</v>
       </c>
@@ -10249,7 +10296,7 @@
         <v>2520</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" s="50" t="s">
         <v>27</v>
       </c>
@@ -10267,7 +10314,7 @@
         <v>6375</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" s="50" t="s">
         <v>9</v>
       </c>
@@ -10285,7 +10332,7 @@
         <v>106150</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18" s="50" t="s">
         <v>10</v>
       </c>
@@ -10303,7 +10350,7 @@
         <v>31144</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19" s="50" t="s">
         <v>7</v>
       </c>
@@ -10321,7 +10368,7 @@
         <v>71340</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20" s="50" t="s">
         <v>64</v>
       </c>
@@ -10339,7 +10386,7 @@
         <v>18200</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21" s="48" t="s">
         <v>17</v>
       </c>
@@ -10357,7 +10404,7 @@
         <v>22912</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22" s="50" t="s">
         <v>65</v>
       </c>
@@ -10375,7 +10422,7 @@
         <v>8100</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23" s="50" t="s">
         <v>28</v>
       </c>
@@ -10393,7 +10440,7 @@
         <v>5900</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24" s="50" t="s">
         <v>27</v>
       </c>
@@ -10411,7 +10458,7 @@
         <v>80850</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25" s="50" t="s">
         <v>9</v>
       </c>
@@ -10429,7 +10476,7 @@
         <v>7290</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26" s="50" t="s">
         <v>10</v>
       </c>
@@ -10447,7 +10494,7 @@
         <v>28560</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A27" s="50" t="s">
         <v>7</v>
       </c>
@@ -10465,7 +10512,7 @@
         <v>13920</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A28" s="50" t="s">
         <v>64</v>
       </c>
@@ -10483,7 +10530,7 @@
         <v>13000</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A29" s="50" t="s">
         <v>26</v>
       </c>
@@ -10501,7 +10548,7 @@
         <v>29792</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A30" s="48" t="s">
         <v>18</v>
       </c>
@@ -10519,7 +10566,7 @@
         <v>29745</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A31" s="50" t="s">
         <v>65</v>
       </c>
@@ -10537,7 +10584,7 @@
         <v>25075</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A32" s="50" t="s">
         <v>28</v>
       </c>
@@ -10555,7 +10602,7 @@
         <v>5500</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A33" s="50" t="s">
         <v>27</v>
       </c>
@@ -10573,7 +10620,7 @@
         <v>25650</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A34" s="50" t="s">
         <v>9</v>
       </c>
@@ -10591,7 +10638,7 @@
         <v>28560</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A35" s="50" t="s">
         <v>10</v>
       </c>
@@ -10609,7 +10656,7 @@
         <v>43152</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A36" s="50" t="s">
         <v>7</v>
       </c>
@@ -10627,7 +10674,7 @@
         <v>26000</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A37" s="50" t="s">
         <v>64</v>
       </c>
@@ -10645,7 +10692,7 @@
         <v>2560</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A38" s="50" t="s">
         <v>26</v>
       </c>
@@ -10663,7 +10710,7 @@
         <v>9585</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A39" s="48" t="s">
         <v>20</v>
       </c>
@@ -10681,7 +10728,7 @@
         <v>4450</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A40" s="50" t="s">
         <v>65</v>
       </c>
@@ -10699,7 +10746,7 @@
         <v>70510</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A41" s="50" t="s">
         <v>28</v>
       </c>
@@ -10717,7 +10764,7 @@
         <v>17280</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A42" s="50" t="s">
         <v>27</v>
       </c>
@@ -10725,7 +10772,7 @@
         <v>26000</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A43" s="50" t="s">
         <v>9</v>
       </c>
@@ -10733,7 +10780,7 @@
         <v>2560</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A44" s="50" t="s">
         <v>10</v>
       </c>
@@ -10741,7 +10788,7 @@
         <v>9585</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A45" s="50" t="s">
         <v>7</v>
       </c>
@@ -10749,7 +10796,7 @@
         <v>4450</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A46" s="50" t="s">
         <v>64</v>
       </c>
@@ -10757,7 +10804,7 @@
         <v>70510</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A47" s="50" t="s">
         <v>26</v>
       </c>
@@ -10765,7 +10812,7 @@
         <v>17280</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A48" s="48" t="s">
         <v>40</v>
       </c>
@@ -10786,24 +10833,24 @@
       <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.46484375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.46484375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.1328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.46484375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="36.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.46484375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="36.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="40.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" s="47" t="s">
         <v>95</v>
       </c>
@@ -10811,7 +10858,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" s="47" t="s">
         <v>45</v>
       </c>
@@ -10843,7 +10890,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5" s="48" t="s">
         <v>19</v>
       </c>
@@ -10875,7 +10922,7 @@
         <v>146227</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6" s="48" t="s">
         <v>16</v>
       </c>
@@ -10905,7 +10952,7 @@
         <v>184825</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7" s="48" t="s">
         <v>17</v>
       </c>
@@ -10937,7 +10984,7 @@
         <v>245736</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8" s="48" t="s">
         <v>18</v>
       </c>
@@ -10969,7 +11016,7 @@
         <v>171242</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9" s="48" t="s">
         <v>20</v>
       </c>
@@ -11001,7 +11048,7 @@
         <v>202097</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10" s="48" t="s">
         <v>40</v>
       </c>
@@ -11033,7 +11080,7 @@
         <v>950127</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B13" s="49" t="s">
         <v>65</v>
       </c>
@@ -11062,7 +11109,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14" s="48" t="s">
         <v>19</v>
       </c>
@@ -11103,7 +11150,7 @@
         <v>146227</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15" s="48" t="s">
         <v>16</v>
       </c>
@@ -11144,7 +11191,7 @@
         <v>184825</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16" s="48" t="s">
         <v>17</v>
       </c>
@@ -11185,7 +11232,7 @@
         <v>245736</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A17" s="48" t="s">
         <v>18</v>
       </c>
@@ -11226,7 +11273,7 @@
         <v>171242</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A18" s="48" t="s">
         <v>20</v>
       </c>
@@ -11267,7 +11314,7 @@
         <v>202097</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A19" s="55" t="s">
         <v>40</v>
       </c>
@@ -11321,18 +11368,18 @@
       <selection activeCell="B4" sqref="A1:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" customWidth="1"/>
-    <col min="6" max="6" width="23.7109375" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" customWidth="1"/>
-    <col min="8" max="8" width="18.140625" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.796875" customWidth="1"/>
+    <col min="6" max="6" width="23.6640625" customWidth="1"/>
+    <col min="7" max="7" width="16.796875" customWidth="1"/>
+    <col min="8" max="8" width="18.1328125" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
@@ -11344,7 +11391,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="16" t="s">
         <v>2</v>
       </c>
@@ -11354,7 +11401,7 @@
       <c r="D2" s="3"/>
       <c r="G2" s="7"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="16" t="s">
         <v>3</v>
       </c>
@@ -11364,7 +11411,7 @@
       <c r="D3" s="3"/>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="16" t="s">
         <v>4</v>
       </c>
@@ -11374,7 +11421,7 @@
       <c r="D4" s="3"/>
       <c r="G4" s="7"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="G5" s="7"/>
     </row>
   </sheetData>
@@ -11390,16 +11437,16 @@
       <selection activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16.46484375" customWidth="1"/>
+    <col min="3" max="3" width="18.796875" customWidth="1"/>
     <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
-    <col min="9" max="13" width="11.7109375" customWidth="1"/>
+    <col min="9" max="13" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A1" s="11" t="s">
         <v>5</v>
       </c>
@@ -11434,7 +11481,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A2" s="8" t="s">
         <v>7</v>
       </c>
@@ -11468,7 +11515,7 @@
       </c>
       <c r="O2" s="12"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A3" s="9" t="s">
         <v>9</v>
       </c>
@@ -11502,7 +11549,7 @@
       </c>
       <c r="O3" s="12"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A4" s="9" t="s">
         <v>10</v>
       </c>
@@ -11536,7 +11583,7 @@
       </c>
       <c r="O4" s="12"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A5" s="9" t="s">
         <v>26</v>
       </c>
@@ -11570,7 +11617,7 @@
       </c>
       <c r="O5" s="12"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A6" s="9" t="s">
         <v>27</v>
       </c>
@@ -11604,7 +11651,7 @@
       </c>
       <c r="O6" s="12"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A7" s="9" t="s">
         <v>28</v>
       </c>
@@ -11638,7 +11685,7 @@
       </c>
       <c r="O7" s="12"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A8" s="9" t="s">
         <v>64</v>
       </c>
@@ -11672,7 +11719,7 @@
       </c>
       <c r="O8" s="12"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A9" s="10" t="s">
         <v>65</v>
       </c>
@@ -11706,7 +11753,7 @@
       </c>
       <c r="O9" s="12"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A10" s="9" t="s">
         <v>34</v>
       </c>
@@ -11780,15 +11827,15 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.7109375" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="57" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
         <v>13</v>
       </c>
@@ -11808,7 +11855,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -11828,7 +11875,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -11848,7 +11895,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -11856,7 +11903,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -11864,7 +11911,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -11872,13 +11919,13 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="5"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="5"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="5"/>
     </row>
   </sheetData>
@@ -11894,15 +11941,15 @@
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" customWidth="1"/>
-    <col min="4" max="7" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="27.46484375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.1328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.1328125" customWidth="1"/>
+    <col min="4" max="7" width="14.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A3" s="15" t="s">
         <v>45</v>
       </c>
@@ -11925,7 +11972,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="18" t="s">
         <v>19</v>
       </c>
@@ -11954,7 +12001,7 @@
         <v>20899.439999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="18" t="s">
         <v>16</v>
       </c>
@@ -11983,7 +12030,7 @@
         <v>24072.12</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="18" t="s">
         <v>17</v>
       </c>
@@ -12012,7 +12059,7 @@
         <v>24072.12</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="18" t="s">
         <v>18</v>
       </c>
@@ -12041,7 +12088,7 @@
         <v>24072.12</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="18" t="s">
         <v>20</v>
       </c>
@@ -12070,7 +12117,7 @@
         <v>20899.439999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="20" t="s">
         <v>40</v>
       </c>
@@ -12096,7 +12143,7 @@
         <v>114015.23999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>52</v>
       </c>
@@ -12104,7 +12151,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>54</v>
       </c>
@@ -12112,7 +12159,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>56</v>
       </c>
@@ -12120,7 +12167,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>58</v>
       </c>
@@ -12141,23 +12188,23 @@
       <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.46484375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.46484375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.28515625" customWidth="1"/>
-    <col min="14" max="14" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" customWidth="1"/>
-    <col min="16" max="16" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.1328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13.1328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.46484375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.1328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.33203125" customWidth="1"/>
+    <col min="14" max="14" width="26.46484375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.46484375" customWidth="1"/>
+    <col min="16" max="16" width="26.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>60</v>
       </c>
@@ -12177,7 +12224,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="24" t="s">
         <v>63</v>
       </c>
@@ -12209,7 +12256,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" s="16" t="s">
         <v>16</v>
       </c>
@@ -12250,7 +12297,7 @@
         <v>155555</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" s="16" t="s">
         <v>17</v>
       </c>
@@ -12291,7 +12338,7 @@
         <v>216976</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" s="16" t="s">
         <v>18</v>
       </c>
@@ -12332,7 +12379,7 @@
         <v>130128</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" s="16" t="s">
         <v>19</v>
       </c>
@@ -12373,7 +12420,7 @@
         <v>133707</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8" s="16" t="s">
         <v>20</v>
       </c>
@@ -12414,7 +12461,7 @@
         <v>191387</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" s="16" t="s">
         <v>66</v>
       </c>
@@ -12455,7 +12502,7 @@
         <v>827753</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11" s="24" t="s">
         <v>67</v>
       </c>
@@ -12487,7 +12534,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12" s="16" t="s">
         <v>16</v>
       </c>
@@ -12528,7 +12575,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13" s="16" t="s">
         <v>17</v>
       </c>
@@ -12569,7 +12616,7 @@
         <v>3056</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14" s="16" t="s">
         <v>18</v>
       </c>
@@ -12610,7 +12657,7 @@
         <v>2704</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15" s="16" t="s">
         <v>19</v>
       </c>
@@ -12651,7 +12698,7 @@
         <v>1949</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A16" s="16" t="s">
         <v>20</v>
       </c>
@@ -12692,7 +12739,7 @@
         <v>2358</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A17" s="24" t="s">
         <v>68</v>
       </c>
@@ -12733,7 +12780,7 @@
         <v>13071</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A18" s="25" t="s">
         <v>69</v>
       </c>
@@ -12774,7 +12821,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A19" s="25" t="s">
         <v>97</v>
       </c>
@@ -12815,10 +12862,10 @@
         <v>11928</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A20" s="27"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A21" s="25" t="s">
         <v>70</v>
       </c>
@@ -12850,7 +12897,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A22" s="16" t="s">
         <v>16</v>
       </c>
@@ -12892,7 +12939,7 @@
       </c>
       <c r="K22" s="29"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A23" s="16" t="s">
         <v>17</v>
       </c>
@@ -12934,7 +12981,7 @@
       </c>
       <c r="K23" s="29"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A24" s="16" t="s">
         <v>18</v>
       </c>
@@ -12976,7 +13023,7 @@
       </c>
       <c r="K24" s="29"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A25" s="16" t="s">
         <v>19</v>
       </c>
@@ -13018,7 +13065,7 @@
       </c>
       <c r="K25" s="29"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A26" s="16" t="s">
         <v>20</v>
       </c>
@@ -13060,7 +13107,7 @@
       </c>
       <c r="K26" s="29"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A27" s="16" t="s">
         <v>66</v>
       </c>
@@ -13116,18 +13163,18 @@
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="29.85546875" style="37" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" style="37" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.796875" style="37" customWidth="1"/>
+    <col min="2" max="2" width="27.46484375" style="37" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="25" style="37" customWidth="1"/>
-    <col min="5" max="5" width="39.42578125" style="37" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="37"/>
-    <col min="7" max="7" width="18.85546875" style="37" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="37"/>
+    <col min="5" max="5" width="39.46484375" style="37" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1328125" style="37"/>
+    <col min="7" max="7" width="18.796875" style="37" customWidth="1"/>
+    <col min="8" max="16384" width="9.1328125" style="37"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>75</v>
       </c>
@@ -13135,7 +13182,7 @@
       <c r="I1" s="39"/>
       <c r="J1" s="39"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" s="24" t="s">
         <v>76</v>
       </c>
@@ -13146,7 +13193,7 @@
       <c r="I2" s="39"/>
       <c r="J2" s="39"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" s="38" t="s">
         <v>27</v>
       </c>
@@ -13157,14 +13204,14 @@
       <c r="I3" s="39"/>
       <c r="J3" s="39"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" s="39"/>
       <c r="G4" s="39"/>
       <c r="H4" s="39"/>
       <c r="I4" s="39"/>
       <c r="J4" s="39"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>78</v>
       </c>
@@ -13172,7 +13219,7 @@
       <c r="I5" s="39"/>
       <c r="J5" s="39"/>
     </row>
-    <row r="6" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="24" t="s">
         <v>79</v>
       </c>
@@ -13189,7 +13236,7 @@
       <c r="I6" s="11"/>
       <c r="J6" s="39"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7" s="16" t="s">
         <v>16</v>
       </c>
@@ -13208,7 +13255,7 @@
       <c r="I7" s="39"/>
       <c r="J7" s="39"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8" s="16" t="s">
         <v>17</v>
       </c>
@@ -13227,7 +13274,7 @@
       <c r="I8" s="39"/>
       <c r="J8" s="39"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9" s="16" t="s">
         <v>18</v>
       </c>
@@ -13246,7 +13293,7 @@
       <c r="I9" s="39"/>
       <c r="J9" s="39"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10" s="16" t="s">
         <v>19</v>
       </c>
@@ -13265,7 +13312,7 @@
       <c r="I10" s="39"/>
       <c r="J10" s="39"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11" s="16" t="s">
         <v>20</v>
       </c>
@@ -13284,7 +13331,7 @@
       <c r="I11" s="39"/>
       <c r="J11" s="39"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12" s="13"/>
       <c r="B12" s="41" t="str">
         <f>IF(SUM(B7:B11)=100%,"OK","ОШИБКА")</f>
@@ -13302,7 +13349,7 @@
       <c r="I12" s="39"/>
       <c r="J12" s="39"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13" s="13"/>
       <c r="B13" s="42"/>
       <c r="C13" s="42"/>
@@ -13317,7 +13364,7 @@
       <c r="I13" s="39"/>
       <c r="J13" s="39"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="D14" s="16" t="s">
         <v>65</v>
       </c>
@@ -13329,7 +13376,7 @@
       <c r="I14" s="39"/>
       <c r="J14" s="39"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16" s="43" t="s">
         <v>83</v>
       </c>
@@ -13346,7 +13393,7 @@
       </c>
       <c r="E16"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" s="24" t="s">
         <v>85</v>
       </c>
@@ -13360,7 +13407,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" s="24" t="s">
         <v>89</v>
       </c>
@@ -13377,7 +13424,7 @@
         <v>Печенье Вкусное</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" s="30" t="s">
         <v>90</v>
       </c>
@@ -13394,7 +13441,7 @@
         <v>Григорьев Сергей Петрович</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" s="25" t="s">
         <v>91</v>
       </c>
@@ -13411,7 +13458,7 @@
         <v>Снежок</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" s="25" t="s">
         <v>92</v>
       </c>
@@ -13428,10 +13475,10 @@
         <v>Волокушин Иван Иванович</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A24" s="57"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25"/>
     </row>
   </sheetData>
